--- a/new_product_development/0322_list.xlsx
+++ b/new_product_development/0322_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ai_ri\Documents\自分_作業用\new_product_development\new_product_development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15AC0EC-5A6D-48C7-9C80-5BB8A1799432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC29CAF2-6D69-4692-B8FA-7021E846C7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9240" yWindow="15" windowWidth="11280" windowHeight="12945" xr2:uid="{C87DBD63-AF13-4521-A627-40DF9AEECF19}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="154">
   <si>
     <t>ベース原料</t>
     <phoneticPr fontId="1"/>
@@ -469,10 +469,6 @@
     <t>カスタードクリーム</t>
   </si>
   <si>
-    <t>ファミリーマート：いちごのエクレア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>生クリーム</t>
   </si>
   <si>
@@ -521,13 +517,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タルト生地</t>
-    <rPh sb="3" eb="5">
-      <t>キジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カラメルソース</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -551,10 +540,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファミリーマート：白玉クリームぜんざい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スポンジ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -570,13 +555,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クレープ生地</t>
-    <rPh sb="4" eb="6">
-      <t>キジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>練乳入りホイップ</t>
     <rPh sb="0" eb="2">
       <t>レンニュウ</t>
@@ -591,10 +569,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファミリーマート：いちごの白玉クリームぜんざい6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>白玉</t>
     <rPh sb="0" eb="2">
       <t>シラタマ</t>
@@ -621,13 +595,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シュー生地</t>
-    <rPh sb="3" eb="5">
-      <t>キジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チョコレート</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -661,10 +628,6 @@
   </si>
   <si>
     <t>みかん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファミリーマート：ファミマ・ザ・クレープ　羽二重餅</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -679,6 +642,334 @@
     <t>番号</t>
     <rPh sb="0" eb="2">
       <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：いちごの白玉クリームぜんざい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：ブラックサンダーザクザクチョコクッキーサンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：いちごの生チーズケーキ</t>
+    <rPh sb="13" eb="14">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：イタリア栗のモンブラン</t>
+    <rPh sb="13" eb="14">
+      <t>クリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：ふわもちドーナツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：冷やして食べるとろけるくりーむパン　チョコレート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：ほっとやすらぐミルクプリン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：贅沢ミルク寒天みかん入り</t>
+    <rPh sb="9" eb="11">
+      <t>ゼイタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：濃厚生チョコサンド</t>
+    <rPh sb="9" eb="11">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：濃厚なめらかショコラケーキ</t>
+    <rPh sb="9" eb="11">
+      <t>ノウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：ラム酒香る芳醇カヌレ</t>
+    <rPh sb="11" eb="12">
+      <t>サケ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：いちごのクレープ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧ファミリーマート：いちごのエクレア</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧ファミリーマート：白玉クリームぜんざい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：ダブルクリームサンド（ホイップ＆カスタード）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：クリームたい焼きチョコ</t>
+    <rPh sb="15" eb="16">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：クリームたっぷり！濃厚カスタードシュー</t>
+    <rPh sb="18" eb="20">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ノウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧ファミリーマート：ファミマ・ザ・クレープ　羽二重餅</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：たっぷりクリームのダブルシュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：ファミマ・ザ・クレープ　生チョコ</t>
+    <rPh sb="21" eb="22">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：こく生プリン</t>
+    <rPh sb="11" eb="12">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：ミルクレープロール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：喫茶店のレトロプリン</t>
+    <rPh sb="9" eb="12">
+      <t>キッサテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：冷やして食べるしっとり食感のバウム</t>
+    <rPh sb="9" eb="10">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：窯出しプリンのパフェ</t>
+    <rPh sb="9" eb="11">
+      <t>カマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：冷やして食べるとろけるくりーむパン　カスタード</t>
+    <rPh sb="9" eb="10">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：クリームたい焼きカスタード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クッキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレープ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケーキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栗</t>
+    <rPh sb="0" eb="1">
+      <t>クリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マロンクリーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マロンペースト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マロンダイス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタードクリーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミルク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カヌレ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラム酒</t>
+    <rPh sb="2" eb="3">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちごソース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホイップクリーム</t>
+  </si>
+  <si>
+    <t>ホイップクリーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たい焼き</t>
+    <rPh sb="2" eb="3">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生チョコ</t>
+    <rPh sb="0" eb="1">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他ブランドとのコラボ</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あり</t>
+  </si>
+  <si>
+    <t>バウムクーヘン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイシング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パフェ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラメルゼリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プリンムース</t>
+  </si>
+  <si>
+    <t>300円代</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200円代</t>
+    <rPh sb="3" eb="5">
+      <t>エンダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -788,8 +1079,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1111,76 +1402,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A678BB-98A4-4C37-A847-DE64F7132962}">
   <dimension ref="A1:AX23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="51" width="25.875" customWidth="1"/>
+    <col min="2" max="28" width="25.875" customWidth="1"/>
+    <col min="29" max="29" width="29.875" customWidth="1"/>
+    <col min="30" max="51" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="5" customFormat="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B1" s="5">
         <v>0</v>
       </c>
       <c r="C1" s="5">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5">
         <v>2</v>
       </c>
-      <c r="D1" s="4">
+      <c r="E1" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="4">
+      <c r="F1" s="4">
         <v>4</v>
       </c>
-      <c r="F1" s="4">
+      <c r="G1" s="4">
         <v>5</v>
       </c>
-      <c r="G1" s="4">
+      <c r="H1" s="4">
         <v>6</v>
       </c>
-      <c r="H1" s="4">
+      <c r="I1" s="4">
         <v>7</v>
       </c>
-      <c r="I1" s="4">
+      <c r="J1" s="4">
         <v>8</v>
       </c>
-      <c r="J1" s="4">
+      <c r="K1" s="4">
         <v>9</v>
       </c>
-      <c r="K1" s="5">
+      <c r="L1" s="5">
         <v>10</v>
       </c>
-      <c r="L1" s="5">
+      <c r="M1" s="5">
         <v>11</v>
       </c>
-      <c r="M1" s="5">
+      <c r="N1" s="4">
         <v>12</v>
       </c>
-      <c r="N1" s="4">
+      <c r="O1" s="5">
         <v>13</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
+      <c r="P1" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>15</v>
+      </c>
+      <c r="R1" s="4">
+        <v>16</v>
+      </c>
+      <c r="S1" s="5">
+        <v>17</v>
+      </c>
+      <c r="T1" s="4">
+        <v>18</v>
+      </c>
+      <c r="U1" s="5">
+        <v>19</v>
+      </c>
+      <c r="V1" s="4">
+        <v>20</v>
+      </c>
+      <c r="W1" s="5">
+        <v>21</v>
+      </c>
+      <c r="X1" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="5">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="5">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="5">
+        <v>35</v>
+      </c>
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
       <c r="AN1" s="4"/>
@@ -1197,100 +1542,225 @@
         <v>59</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="P2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
+      <c r="S2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
-        <v>86</v>
-      </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="O3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R3" t="s">
+        <v>135</v>
+      </c>
+      <c r="S3" t="s">
+        <v>135</v>
+      </c>
+      <c r="T3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" t="s">
+        <v>81</v>
+      </c>
+      <c r="V3" t="s">
+        <v>123</v>
+      </c>
+      <c r="W3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.7">
@@ -1304,37 +1774,106 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>131</v>
+      </c>
+      <c r="R4" t="s">
+        <v>130</v>
+      </c>
+      <c r="S4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" t="s">
+        <v>137</v>
+      </c>
+      <c r="V4" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" t="s">
+        <v>84</v>
+      </c>
+      <c r="X4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.7">
@@ -1345,40 +1884,109 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
         <v>63</v>
       </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>133</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T5" t="s">
         <v>63</v>
       </c>
-      <c r="F5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
+      <c r="U5" t="s">
+        <v>92</v>
+      </c>
+      <c r="V5" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" t="s">
+        <v>86</v>
+      </c>
+      <c r="X5" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.7">
@@ -1389,40 +1997,109 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
         <v>60</v>
       </c>
-      <c r="E6" t="s">
-        <v>78</v>
-      </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>78</v>
       </c>
       <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s">
         <v>60</v>
       </c>
-      <c r="I6" t="s">
-        <v>92</v>
-      </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>101</v>
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" t="s">
+        <v>63</v>
+      </c>
+      <c r="X6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.7">
@@ -1436,7 +2113,7 @@
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>60</v>
@@ -1445,28 +2122,97 @@
         <v>60</v>
       </c>
       <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
         <v>84</v>
       </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" t="s">
-        <v>95</v>
-      </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" t="s">
+        <v>84</v>
+      </c>
+      <c r="W7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.7">
@@ -1489,28 +2235,97 @@
         <v>42</v>
       </c>
       <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
         <v>26</v>
       </c>
-      <c r="H8" t="s">
-        <v>87</v>
-      </c>
       <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
         <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
         <v>42</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
+      </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.7">
@@ -1524,25 +2339,25 @@
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
         <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
       </c>
       <c r="H9" t="s">
         <v>43</v>
       </c>
       <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
         <v>27</v>
-      </c>
-      <c r="J9" t="s">
-        <v>43</v>
       </c>
       <c r="K9" t="s">
         <v>43</v>
@@ -1551,10 +2366,79 @@
         <v>43</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
         <v>43</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.7">
@@ -1571,7 +2455,7 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
         <v>44</v>
@@ -1583,10 +2467,10 @@
         <v>44</v>
       </c>
       <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
         <v>28</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
       </c>
       <c r="K10" t="s">
         <v>44</v>
@@ -1595,10 +2479,79 @@
         <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s">
         <v>44</v>
+      </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" t="s">
+        <v>44</v>
+      </c>
+      <c r="U10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.7">
@@ -1644,10 +2597,79 @@
       <c r="N11" t="s">
         <v>25</v>
       </c>
+      <c r="O11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" t="s">
+        <v>25</v>
+      </c>
+      <c r="V11" t="s">
+        <v>25</v>
+      </c>
+      <c r="W11" t="s">
+        <v>25</v>
+      </c>
+      <c r="X11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1656,7 +2678,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -1674,10 +2696,10 @@
         <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
         <v>25</v>
@@ -1686,6 +2708,75 @@
         <v>25</v>
       </c>
       <c r="N12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" t="s">
+        <v>146</v>
+      </c>
+      <c r="P12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V12" t="s">
+        <v>25</v>
+      </c>
+      <c r="W12" t="s">
+        <v>25</v>
+      </c>
+      <c r="X12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1732,6 +2823,75 @@
       <c r="N13" t="s">
         <v>29</v>
       </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" t="s">
+        <v>29</v>
+      </c>
+      <c r="V13" t="s">
+        <v>29</v>
+      </c>
+      <c r="W13" t="s">
+        <v>29</v>
+      </c>
+      <c r="X13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
@@ -1776,6 +2936,75 @@
       <c r="N14" t="s">
         <v>30</v>
       </c>
+      <c r="O14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W14" t="s">
+        <v>30</v>
+      </c>
+      <c r="X14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
@@ -1820,6 +3049,75 @@
       <c r="N15" t="s">
         <v>30</v>
       </c>
+      <c r="O15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" t="s">
+        <v>30</v>
+      </c>
+      <c r="U15" t="s">
+        <v>30</v>
+      </c>
+      <c r="V15" t="s">
+        <v>30</v>
+      </c>
+      <c r="W15" t="s">
+        <v>30</v>
+      </c>
+      <c r="X15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
@@ -1864,8 +3162,77 @@
       <c r="N16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="O16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U16" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" t="s">
+        <v>31</v>
+      </c>
+      <c r="W16" t="s">
+        <v>31</v>
+      </c>
+      <c r="X16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1908,8 +3275,77 @@
       <c r="N17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" t="s">
+        <v>32</v>
+      </c>
+      <c r="W17" t="s">
+        <v>32</v>
+      </c>
+      <c r="X17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1929,16 +3365,16 @@
         <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
       </c>
       <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s">
         <v>33</v>
-      </c>
-      <c r="J18" t="s">
-        <v>46</v>
       </c>
       <c r="K18" t="s">
         <v>46</v>
@@ -1947,13 +3383,82 @@
         <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="O18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>46</v>
+      </c>
+      <c r="R18" t="s">
+        <v>33</v>
+      </c>
+      <c r="S18" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" t="s">
+        <v>46</v>
+      </c>
+      <c r="U18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V18" t="s">
+        <v>33</v>
+      </c>
+      <c r="W18" t="s">
+        <v>33</v>
+      </c>
+      <c r="X18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1996,8 +3501,77 @@
       <c r="N19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19" t="s">
+        <v>34</v>
+      </c>
+      <c r="U19" t="s">
+        <v>34</v>
+      </c>
+      <c r="V19" t="s">
+        <v>34</v>
+      </c>
+      <c r="W19" t="s">
+        <v>34</v>
+      </c>
+      <c r="X19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2040,8 +3614,77 @@
       <c r="N20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="O20" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" t="s">
+        <v>35</v>
+      </c>
+      <c r="U20" t="s">
+        <v>35</v>
+      </c>
+      <c r="V20" t="s">
+        <v>35</v>
+      </c>
+      <c r="W20" t="s">
+        <v>35</v>
+      </c>
+      <c r="X20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -2052,13 +3695,13 @@
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
@@ -2084,8 +3727,77 @@
       <c r="N21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="O21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" t="s">
+        <v>36</v>
+      </c>
+      <c r="S21" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21" t="s">
+        <v>36</v>
+      </c>
+      <c r="V21" t="s">
+        <v>36</v>
+      </c>
+      <c r="W21" t="s">
+        <v>36</v>
+      </c>
+      <c r="X21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2128,8 +3840,77 @@
       <c r="N22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2151,7 +3932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CF902D-5540-4658-A367-135857B6D1B3}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -2234,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -2306,7 +4087,7 @@
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.7">
@@ -2317,7 +4098,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.7">
@@ -2328,7 +4109,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.7">
@@ -2344,13 +4125,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.7">
@@ -2358,13 +4139,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
         <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.7">
@@ -2437,7 +4218,7 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.7">

--- a/new_product_development/0322_list.xlsx
+++ b/new_product_development/0322_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ai_ri\Documents\自分_作業用\new_product_development\new_product_development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC29CAF2-6D69-4692-B8FA-7021E846C7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7641CAC-901E-4496-94C0-FDCDD37E72D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="15" windowWidth="11280" windowHeight="12945" xr2:uid="{C87DBD63-AF13-4521-A627-40DF9AEECF19}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{C87DBD63-AF13-4521-A627-40DF9AEECF19}"/>
   </bookViews>
   <sheets>
     <sheet name="商品エージェントの要素" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="152">
   <si>
     <t>ベース原料</t>
     <phoneticPr fontId="1"/>
@@ -172,13 +172,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パイ生地</t>
-    <rPh sb="2" eb="4">
-      <t>キジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>いちご</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -466,9 +459,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>カスタードクリーム</t>
-  </si>
-  <si>
     <t>生クリーム</t>
   </si>
   <si>
@@ -751,10 +741,7 @@
   <si>
     <t>ファミリーマート：クリームたっぷり！濃厚カスタードシュー</t>
     <rPh sb="18" eb="20">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ノウコウ</t>
+      <t>ノウコウノウコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -808,13 +795,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファミリーマート：窯出しプリンのパフェ</t>
-    <rPh sb="9" eb="11">
-      <t>カマダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ファミリーマート：冷やして食べるとろけるくりーむパン　カスタード</t>
     <rPh sb="9" eb="10">
       <t>ヒ</t>
@@ -971,6 +951,10 @@
     <rPh sb="3" eb="5">
       <t>エンダイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミリーマート：窯出しプリンのパフェ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1402,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A678BB-98A4-4C37-A847-DE64F7132962}">
   <dimension ref="A1:AX23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1416,7 +1400,7 @@
   <sheetData>
     <row r="1" spans="1:50" s="5" customFormat="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="5">
         <v>0</v>
@@ -1539,115 +1523,115 @@
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AK2" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.7">
@@ -1655,112 +1639,112 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P3" t="s">
         <v>125</v>
       </c>
-      <c r="E3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="Q3" t="s">
         <v>125</v>
       </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" t="s">
-        <v>123</v>
-      </c>
-      <c r="P3" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>128</v>
-      </c>
       <c r="R3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="T3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="X3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Y3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF3" t="s">
         <v>125</v>
       </c>
-      <c r="Z3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AG3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH3" t="s">
         <v>125</v>
       </c>
-      <c r="AE3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>128</v>
-      </c>
       <c r="AI3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AJ3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AK3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.7">
@@ -1768,112 +1752,112 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="V4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Y4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AC4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AD4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AE4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AH4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AI4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AJ4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.7">
@@ -1881,112 +1865,112 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" t="s">
+        <v>90</v>
+      </c>
+      <c r="V5" t="s">
+        <v>84</v>
+      </c>
+      <c r="W5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y5" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Z5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB5" t="s">
         <v>133</v>
       </c>
-      <c r="R5" t="s">
-        <v>75</v>
-      </c>
-      <c r="S5" t="s">
-        <v>136</v>
-      </c>
-      <c r="T5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U5" t="s">
-        <v>92</v>
-      </c>
-      <c r="V5" t="s">
-        <v>86</v>
-      </c>
-      <c r="W5" t="s">
-        <v>86</v>
-      </c>
-      <c r="X5" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>136</v>
-      </c>
       <c r="AC5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AD5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AF5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AH5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AI5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AJ5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AK5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.7">
@@ -1994,112 +1978,112 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="R6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Z6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AE6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AF6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AH6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AI6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AJ6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.7">
@@ -2107,112 +2091,112 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="R7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AD7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AF7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AH7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AI7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AJ7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AK7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.7">
@@ -2220,112 +2204,112 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AJ8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AK8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.7">
@@ -2333,112 +2317,112 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AJ9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.7">
@@ -2446,112 +2430,112 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.7">
@@ -2559,225 +2543,225 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AH11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AI11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AJ11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AK11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.7">
@@ -2785,112 +2769,112 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.7">
@@ -2898,112 +2882,112 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.7">
@@ -3011,112 +2995,112 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.7">
@@ -3124,112 +3108,112 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AH16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AK16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.7">
@@ -3237,112 +3221,112 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AH17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AK17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.7">
@@ -3350,112 +3334,112 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AJ18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AK18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.7">
@@ -3463,112 +3447,112 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AH19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AI19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AJ19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.7">
@@ -3576,112 +3560,112 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AK20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.7">
@@ -3689,112 +3673,112 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AF21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AH21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AJ21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AK21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.7">
@@ -3805,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3915,10 +3899,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3930,24 +3914,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CF902D-5540-4658-A367-135857B6D1B3}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
-  <cols>
-    <col min="1" max="1" width="22.6875" customWidth="1"/>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
-    <col min="6" max="6" width="20.5625" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="28.4375" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A1" s="2"/>
       <c r="B1" s="5">
         <v>0</v>
@@ -3979,12 +3954,25 @@
       <c r="K1" s="4">
         <v>9</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="L1" s="4">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3999,164 +3987,266 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.7">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.7">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.7">
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M5" t="s">
+        <v>139</v>
+      </c>
+      <c r="N5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O5" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.7">
@@ -4164,22 +4254,22 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
         <v>49</v>
       </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>50</v>
-      </c>
-      <c r="G17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.7">
@@ -4187,13 +4277,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.7">
@@ -4201,7 +4291,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.7">
@@ -4209,16 +4299,16 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.7">
@@ -4226,13 +4316,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.7">
@@ -4243,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.7">
@@ -4251,19 +4341,19 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
         <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
